--- a/inputs compound generator/inputs/llindars_massa_aigua.xlsx
+++ b/inputs compound generator/inputs/llindars_massa_aigua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB75B6E6-D963-40F5-84F3-5045819D0A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B700E2D-2F21-4EBD-BE5B-A818398CF913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="2600" windowWidth="14400" windowHeight="8720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:Z14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -815,7 +815,7 @@
         <v>70</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -863,7 +863,7 @@
         <v>70</v>
       </c>
       <c r="T5">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="U5">
         <v>70</v>

--- a/inputs compound generator/inputs/llindars_massa_aigua.xlsx
+++ b/inputs compound generator/inputs/llindars_massa_aigua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B1083-06A5-441F-B9E2-51A55B5B57F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89820DB6-4665-4D84-9600-307D02A35BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:Z16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1685,7 +1685,7 @@
         <v>7200</v>
       </c>
       <c r="D16" s="2">
-        <v>7200</v>
+        <v>5000</v>
       </c>
       <c r="E16" s="2">
         <v>7200</v>
@@ -1733,7 +1733,7 @@
         <v>7200</v>
       </c>
       <c r="T16" s="2">
-        <v>7200</v>
+        <v>5000</v>
       </c>
       <c r="U16" s="2">
         <v>7200</v>

--- a/inputs compound generator/inputs/llindars_massa_aigua.xlsx
+++ b/inputs compound generator/inputs/llindars_massa_aigua.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Contaminant</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">Cloroalcans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niquel dissolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plom dissolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diuron</t>
   </si>
 </sst>
 </file>
@@ -196,8 +205,8 @@
   </sheetPr>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9:Z9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1325,6 +1334,246 @@
         <v>400</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X24" s="3"/>
     </row>

--- a/inputs compound generator/inputs/llindars_massa_aigua.xlsx
+++ b/inputs compound generator/inputs/llindars_massa_aigua.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89820DB6-4665-4D84-9600-307D02A35BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471026E1-0554-4719-9578-8C51F6449126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Hexabromociclodecà</t>
   </si>
   <si>
-    <t>Mercuri dissolt</t>
-  </si>
-  <si>
     <t>Nonilfenols</t>
   </si>
   <si>
@@ -63,19 +60,22 @@
     <t>Venlafaxina</t>
   </si>
   <si>
-    <t>Zinc dissolt</t>
-  </si>
-  <si>
     <t>Cloroalcans</t>
   </si>
   <si>
-    <t>Niquel dissolt</t>
+    <t>Diuron</t>
   </si>
   <si>
-    <t>Plom dissolt</t>
+    <t>Mercuri</t>
   </si>
   <si>
-    <t>Diuron</t>
+    <t>Niquel</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Plom</t>
   </si>
 </sst>
 </file>
@@ -142,12 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -465,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -796,7 +795,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>70</v>
@@ -876,7 +875,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>300</v>
@@ -956,7 +955,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -1036,7 +1035,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -1116,7 +1115,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>10000</v>
@@ -1196,7 +1195,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2500</v>
@@ -1276,7 +1275,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -1356,7 +1355,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -1436,7 +1435,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>500000</v>
@@ -1516,81 +1515,81 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>400</v>
-      </c>
-      <c r="C14" s="2">
-        <v>400</v>
-      </c>
-      <c r="D14" s="2">
-        <v>400</v>
-      </c>
-      <c r="E14" s="2">
-        <v>400</v>
-      </c>
-      <c r="F14" s="2">
-        <v>400</v>
-      </c>
-      <c r="G14" s="2">
-        <v>400</v>
-      </c>
-      <c r="H14" s="2">
-        <v>400</v>
-      </c>
-      <c r="I14" s="2">
-        <v>400</v>
-      </c>
-      <c r="J14" s="2">
-        <v>400</v>
-      </c>
-      <c r="K14" s="2">
-        <v>400</v>
-      </c>
-      <c r="L14" s="2">
-        <v>400</v>
-      </c>
-      <c r="M14" s="2">
-        <v>400</v>
-      </c>
-      <c r="N14" s="2">
-        <v>400</v>
-      </c>
-      <c r="O14" s="2">
-        <v>400</v>
-      </c>
-      <c r="P14" s="2">
-        <v>400</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>400</v>
-      </c>
-      <c r="R14" s="2">
-        <v>400</v>
-      </c>
-      <c r="S14" s="2">
-        <v>400</v>
-      </c>
-      <c r="T14" s="2">
-        <v>400</v>
-      </c>
-      <c r="U14" s="2">
-        <v>400</v>
-      </c>
-      <c r="V14" s="2">
-        <v>400</v>
-      </c>
-      <c r="W14" s="2">
-        <v>400</v>
-      </c>
-      <c r="X14" s="2">
-        <v>400</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>400</v>
-      </c>
-      <c r="Z14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>400</v>
+      </c>
+      <c r="C14">
+        <v>400</v>
+      </c>
+      <c r="D14">
+        <v>400</v>
+      </c>
+      <c r="E14">
+        <v>400</v>
+      </c>
+      <c r="F14">
+        <v>400</v>
+      </c>
+      <c r="G14">
+        <v>400</v>
+      </c>
+      <c r="H14">
+        <v>400</v>
+      </c>
+      <c r="I14">
+        <v>400</v>
+      </c>
+      <c r="J14">
+        <v>400</v>
+      </c>
+      <c r="K14">
+        <v>400</v>
+      </c>
+      <c r="L14">
+        <v>400</v>
+      </c>
+      <c r="M14">
+        <v>400</v>
+      </c>
+      <c r="N14">
+        <v>400</v>
+      </c>
+      <c r="O14">
+        <v>400</v>
+      </c>
+      <c r="P14">
+        <v>400</v>
+      </c>
+      <c r="Q14">
+        <v>400</v>
+      </c>
+      <c r="R14">
+        <v>400</v>
+      </c>
+      <c r="S14">
+        <v>400</v>
+      </c>
+      <c r="T14">
+        <v>400</v>
+      </c>
+      <c r="U14">
+        <v>400</v>
+      </c>
+      <c r="V14">
+        <v>400</v>
+      </c>
+      <c r="W14">
+        <v>400</v>
+      </c>
+      <c r="X14">
+        <v>400</v>
+      </c>
+      <c r="Y14">
+        <v>400</v>
+      </c>
+      <c r="Z14">
         <v>400</v>
       </c>
     </row>
@@ -1598,165 +1597,165 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="G15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="H15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="I15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="J15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="K15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="L15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="M15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="N15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="O15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="P15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="R15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="S15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="T15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="U15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="V15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="W15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="X15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="Z15" s="2">
+      <c r="B15">
+        <v>20000</v>
+      </c>
+      <c r="C15">
+        <v>20000</v>
+      </c>
+      <c r="D15">
+        <v>20000</v>
+      </c>
+      <c r="E15">
+        <v>20000</v>
+      </c>
+      <c r="F15">
+        <v>20000</v>
+      </c>
+      <c r="G15">
+        <v>20000</v>
+      </c>
+      <c r="H15">
+        <v>20000</v>
+      </c>
+      <c r="I15">
+        <v>20000</v>
+      </c>
+      <c r="J15">
+        <v>20000</v>
+      </c>
+      <c r="K15">
+        <v>20000</v>
+      </c>
+      <c r="L15">
+        <v>20000</v>
+      </c>
+      <c r="M15">
+        <v>20000</v>
+      </c>
+      <c r="N15">
+        <v>20000</v>
+      </c>
+      <c r="O15">
+        <v>20000</v>
+      </c>
+      <c r="P15">
+        <v>20000</v>
+      </c>
+      <c r="Q15">
+        <v>20000</v>
+      </c>
+      <c r="R15">
+        <v>20000</v>
+      </c>
+      <c r="S15">
+        <v>20000</v>
+      </c>
+      <c r="T15">
+        <v>20000</v>
+      </c>
+      <c r="U15">
+        <v>20000</v>
+      </c>
+      <c r="V15">
+        <v>20000</v>
+      </c>
+      <c r="W15">
+        <v>20000</v>
+      </c>
+      <c r="X15">
+        <v>20000</v>
+      </c>
+      <c r="Y15">
+        <v>20000</v>
+      </c>
+      <c r="Z15">
         <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="D16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>7200</v>
+      </c>
+      <c r="C16">
+        <v>7200</v>
+      </c>
+      <c r="D16">
         <v>5000</v>
       </c>
-      <c r="E16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="F16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="G16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="H16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="I16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="J16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="K16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="L16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="M16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="N16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="O16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="P16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="R16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="S16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="T16" s="2">
+      <c r="E16">
+        <v>7200</v>
+      </c>
+      <c r="F16">
+        <v>7200</v>
+      </c>
+      <c r="G16">
+        <v>7200</v>
+      </c>
+      <c r="H16">
+        <v>7200</v>
+      </c>
+      <c r="I16">
+        <v>7200</v>
+      </c>
+      <c r="J16">
+        <v>7200</v>
+      </c>
+      <c r="K16">
+        <v>7200</v>
+      </c>
+      <c r="L16">
+        <v>7200</v>
+      </c>
+      <c r="M16">
+        <v>7200</v>
+      </c>
+      <c r="N16">
+        <v>7200</v>
+      </c>
+      <c r="O16">
+        <v>7200</v>
+      </c>
+      <c r="P16">
+        <v>7200</v>
+      </c>
+      <c r="Q16">
+        <v>7200</v>
+      </c>
+      <c r="R16">
+        <v>7200</v>
+      </c>
+      <c r="S16">
+        <v>7200</v>
+      </c>
+      <c r="T16">
         <v>5000</v>
       </c>
-      <c r="U16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="V16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="W16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="X16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>7200</v>
-      </c>
-      <c r="Z16" s="2">
+      <c r="U16">
+        <v>7200</v>
+      </c>
+      <c r="V16">
+        <v>7200</v>
+      </c>
+      <c r="W16">
+        <v>7200</v>
+      </c>
+      <c r="X16">
+        <v>7200</v>
+      </c>
+      <c r="Y16">
+        <v>7200</v>
+      </c>
+      <c r="Z16">
         <v>7200</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -1835,7 +1834,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X24" s="3"/>
+      <c r="X24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/inputs compound generator/inputs/llindars_massa_aigua.xlsx
+++ b/inputs compound generator/inputs/llindars_massa_aigua.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471026E1-0554-4719-9578-8C51F6449126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD27AAC-8B00-4246-B26A-66E1B3220B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Contaminant</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Plom</t>
+  </si>
+  <si>
+    <t>Nitrogen Total</t>
+  </si>
+  <si>
+    <t>Fòsfor total</t>
+  </si>
+  <si>
+    <t>Nitrats</t>
   </si>
 </sst>
 </file>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1833,11 +1842,254 @@
         <v>200</v>
       </c>
     </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="X24" s="2"/>
     </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>